--- a/design_documents/control_system/power.xlsx
+++ b/design_documents/control_system/power.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>consumer</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HC encoder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GC encoder</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -487,20 +495,20 @@
         <v>6.97</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E8" si="0">C2*B2</f>
+        <f>C2*B2</f>
         <v>33.839999999999996</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F8" si="1">D2*B2</f>
+        <f>D2*B2</f>
         <v>167.28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0.05</v>
@@ -509,83 +517,83 @@
         <v>0.05</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <f>C3*B3</f>
+        <v>0.25</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
+        <f>D3*B3</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>24</v>
       </c>
       <c r="C4">
-        <v>1.41</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
-        <v>6.97</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>33.839999999999996</v>
+        <f>C4*B4</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>167.28</v>
+        <f>D4*B4</f>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>1.41</v>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>6.97</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <f>C5*B5</f>
+        <v>33.839999999999996</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
+        <f>D5*B5</f>
+        <v>167.28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>C6*B6</f>
+        <v>0.25</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f>D6*B6</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -597,55 +605,99 @@
         <v>0.05</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>C7*B7</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f>D7*B7</f>
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <f>C8*B8</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>D8*B8</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>0.05</v>
+      </c>
+      <c r="E9">
+        <f>C9*B9</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F9">
+        <f>D9*B9</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" thickBot="1">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>0.06</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>0.06</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
+      <c r="E10" s="2">
+        <f>C10*B10</f>
         <v>0.3</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
+      <c r="F10" s="2">
+        <f>D10*B10</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <f>SUM(C2:C8)</f>
-        <v>3.23</v>
-      </c>
-      <c r="D9">
-        <f>SUM(D2:D8)</f>
-        <v>14.65</v>
-      </c>
-      <c r="E9">
-        <f>SUM(E2:E8)</f>
-        <v>72.58</v>
-      </c>
-      <c r="F9">
-        <f>SUM(F2:F8)</f>
-        <v>340.96</v>
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>3.3299999999999996</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>14.750000000000002</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>73.08</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F10)</f>
+        <v>341.46</v>
       </c>
     </row>
   </sheetData>
